--- a/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/Questions.xlsx
+++ b/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/Questions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Question</t>
   </si>
@@ -35,6 +35,9 @@
     <t>LectureId</t>
   </si>
   <si>
+    <t>Lecture Name</t>
+  </si>
+  <si>
     <t>1+1</t>
   </si>
   <si>
@@ -144,12 +147,6 @@
   </si>
   <si>
     <t>aaasdsa</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>ư</t>
   </si>
 </sst>
 </file>
@@ -195,7 +192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -223,488 +220,528 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="0">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="0">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G11" s="0">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G12" s="0">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="0">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G14" s="0">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="G16" s="0">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="G17" s="0">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="G18" s="0">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="F19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="0">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G20" s="0">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="0">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/Questions.xlsx
+++ b/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/Questions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -59,94 +59,97 @@
     <t>2+2</t>
   </si>
   <si>
-    <t>React</t>
-  </si>
-  <si>
-    <t>testttt</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>vvv</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>xxxxxxx</t>
-  </si>
-  <si>
-    <t>zzzzz</t>
-  </si>
-  <si>
-    <t>vvvvvvv</t>
-  </si>
-  <si>
-    <t>aaaaaaa</t>
-  </si>
-  <si>
-    <t>ccccccccc</t>
-  </si>
-  <si>
-    <t>adaqwe</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>zc</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z  ad</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>zxc</t>
-  </si>
-  <si>
-    <t>aasdasd</t>
-  </si>
-  <si>
-    <t>1+1 + 2</t>
-  </si>
-  <si>
-    <t>aaasdsa</t>
+    <t>1+2</t>
+  </si>
+  <si>
+    <t>What does HTML stand for?</t>
+  </si>
+  <si>
+    <t>Home Tool Markup Language</t>
+  </si>
+  <si>
+    <t>Hyper Text Markup Language</t>
+  </si>
+  <si>
+    <t>Hyperlinks and Text Markup Language</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Unlike earlier versions of HTML, HTML5 produces pages that look the same across all browsers</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>HTML5 tags have the same semantic meaning, regardless of the browser being used</t>
+  </si>
+  <si>
+    <t>What is the Request/Response Cycle?</t>
+  </si>
+  <si>
+    <t>The process that happens when a client requests a page and a server responds with the appropriate files</t>
+  </si>
+  <si>
+    <t>The process that happens when a HTML5 is created with an editor</t>
+  </si>
+  <si>
+    <t>The process that happens when a server requests a page and a client responds with the appropriate files</t>
+  </si>
+  <si>
+    <t>A ____ is a computer that is in charge of handling resource requests from multiple computers</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>The Domain Name Service looks up the domain and returns the</t>
+  </si>
+  <si>
+    <t>IP address</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>Which organization is responsible for assigning top-level domain names?</t>
+  </si>
+  <si>
+    <t>Internet Corporation for Assigned Numbers and Names (ICANN)</t>
+  </si>
+  <si>
+    <t>Internet Domain Name Server (IDNS)</t>
+  </si>
+  <si>
+    <t>World Wide Web Consortium (W3C)</t>
+  </si>
+  <si>
+    <t>The Request-Response Cycle...</t>
+  </si>
+  <si>
+    <t>is an outdated process used by HTML 4.1</t>
+  </si>
+  <si>
+    <t> may require several iterations of the Request-Respond Cycle</t>
+  </si>
+  <si>
+    <t>is performed once for each requested page</t>
+  </si>
+  <si>
+    <t>is an outdated process used by HTML 4.2</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -241,7 +244,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="0">
         <v>1</v>
@@ -293,7 +296,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0">
         <v>1</v>
@@ -307,19 +310,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="0">
         <v>1</v>
@@ -330,19 +333,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>10</v>
@@ -356,19 +359,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>12</v>
@@ -382,19 +385,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>11</v>
@@ -408,22 +411,22 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9" s="0">
         <v>1</v>
@@ -434,22 +437,22 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="0">
         <v>1</v>
@@ -463,16 +466,16 @@
         <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>9</v>
@@ -486,22 +489,22 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="0">
         <v>1</v>
@@ -512,22 +515,22 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="0">
         <v>1</v>
@@ -538,22 +541,22 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" s="0">
         <v>1</v>
@@ -564,22 +567,22 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="0">
         <v>1</v>
@@ -590,22 +593,22 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16" s="0">
         <v>1</v>
@@ -616,22 +619,22 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17" s="0">
         <v>1</v>
@@ -642,22 +645,22 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G18" s="0">
         <v>1</v>
@@ -668,22 +671,22 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="0">
         <v>1</v>
@@ -694,19 +697,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>9</v>
@@ -720,27 +723,209 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="0">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="0">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="0">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="E24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="0">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="0">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="s">
+      <c r="C25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="0">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="0">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="0">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="0">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>13</v>
       </c>
     </row>
